--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H2">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I2">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J2">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>74.08958833333334</v>
+        <v>0.055614</v>
       </c>
       <c r="N2">
-        <v>222.268765</v>
+        <v>0.166842</v>
       </c>
       <c r="O2">
-        <v>0.749631794917355</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="P2">
-        <v>0.7496317949173549</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="Q2">
-        <v>493.4505871426068</v>
+        <v>0.52428485694</v>
       </c>
       <c r="R2">
-        <v>4441.05528428346</v>
+        <v>4.71856371246</v>
       </c>
       <c r="S2">
-        <v>0.1124558937832796</v>
+        <v>0.0006944346073287145</v>
       </c>
       <c r="T2">
-        <v>0.1124558937832796</v>
+        <v>0.0006944346073287144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H3">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I3">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J3">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.756517</v>
       </c>
       <c r="O3">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="P3">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="Q3">
-        <v>1.679515148398667</v>
+        <v>2.377281542523333</v>
       </c>
       <c r="R3">
-        <v>15.115636335588</v>
+        <v>21.39553388271</v>
       </c>
       <c r="S3">
-        <v>0.000382756413827401</v>
+        <v>0.003148796980571422</v>
       </c>
       <c r="T3">
-        <v>0.0003827564138274009</v>
+        <v>0.003148796980571422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H4">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I4">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J4">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.011929</v>
+        <v>4.376294333333333</v>
       </c>
       <c r="N4">
-        <v>9.035787000000001</v>
+        <v>13.128883</v>
       </c>
       <c r="O4">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="P4">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="Q4">
-        <v>20.06001338265201</v>
+        <v>41.25624570214333</v>
       </c>
       <c r="R4">
-        <v>180.540120443868</v>
+        <v>371.30621131929</v>
       </c>
       <c r="S4">
-        <v>0.004571616273300204</v>
+        <v>0.05464541728563332</v>
       </c>
       <c r="T4">
-        <v>0.004571616273300202</v>
+        <v>0.05464541728563332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H5">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I5">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J5">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.48095</v>
+        <v>12.83925333333333</v>
       </c>
       <c r="N5">
-        <v>64.44284999999999</v>
+        <v>38.51776</v>
       </c>
       <c r="O5">
-        <v>0.2173423211987967</v>
+        <v>0.732694664915554</v>
       </c>
       <c r="P5">
-        <v>0.2173423211987967</v>
+        <v>0.7326946649155539</v>
       </c>
       <c r="Q5">
-        <v>143.0671654186</v>
+        <v>121.0383374165333</v>
       </c>
       <c r="R5">
-        <v>1287.6044887674</v>
+        <v>1089.3450367488</v>
       </c>
       <c r="S5">
-        <v>0.03260457354271896</v>
+        <v>0.1603197368814907</v>
       </c>
       <c r="T5">
-        <v>0.03260457354271896</v>
+        <v>0.1603197368814906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>74.08958833333334</v>
+        <v>0.055614</v>
       </c>
       <c r="N6">
-        <v>222.268765</v>
+        <v>0.166842</v>
       </c>
       <c r="O6">
-        <v>0.749631794917355</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="P6">
-        <v>0.7496317949173549</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="Q6">
-        <v>1215.834668203738</v>
+        <v>0.9126441482339999</v>
       </c>
       <c r="R6">
-        <v>10942.51201383364</v>
+        <v>8.213797334105999</v>
       </c>
       <c r="S6">
-        <v>0.2770850372218412</v>
+        <v>0.001208830795550246</v>
       </c>
       <c r="T6">
-        <v>0.2770850372218412</v>
+        <v>0.001208830795550245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.756517</v>
       </c>
       <c r="O7">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="P7">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="Q7">
         <v>4.138231459042333</v>
@@ -883,10 +883,10 @@
         <v>37.244083131381</v>
       </c>
       <c r="S7">
-        <v>0.0009430904117542367</v>
+        <v>0.005481240017245569</v>
       </c>
       <c r="T7">
-        <v>0.0009430904117542366</v>
+        <v>0.005481240017245568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.011929</v>
+        <v>4.376294333333333</v>
       </c>
       <c r="N8">
-        <v>9.035787000000001</v>
+        <v>13.128883</v>
       </c>
       <c r="O8">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="P8">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="Q8">
-        <v>49.426751838499</v>
+        <v>71.81643856342433</v>
       </c>
       <c r="R8">
-        <v>444.840766546491</v>
+        <v>646.347947070819</v>
       </c>
       <c r="S8">
-        <v>0.01126420699383303</v>
+        <v>0.09512351854794412</v>
       </c>
       <c r="T8">
-        <v>0.01126420699383303</v>
+        <v>0.09512351854794411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.48095</v>
+        <v>12.83925333333333</v>
       </c>
       <c r="N9">
-        <v>64.44284999999999</v>
+        <v>38.51776</v>
       </c>
       <c r="O9">
-        <v>0.2173423211987967</v>
+        <v>0.732694664915554</v>
       </c>
       <c r="P9">
-        <v>0.2173423211987967</v>
+        <v>0.7326946649155539</v>
       </c>
       <c r="Q9">
-        <v>352.5094996944499</v>
+        <v>210.6963969928533</v>
       </c>
       <c r="R9">
-        <v>3172.58549725005</v>
+        <v>1896.26757293568</v>
       </c>
       <c r="S9">
-        <v>0.08033584696856316</v>
+        <v>0.2790751397346797</v>
       </c>
       <c r="T9">
-        <v>0.08033584696856316</v>
+        <v>0.2790751397346796</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H10">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>74.08958833333334</v>
+        <v>0.055614</v>
       </c>
       <c r="N10">
-        <v>222.268765</v>
+        <v>0.166842</v>
       </c>
       <c r="O10">
-        <v>0.749631794917355</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="P10">
-        <v>0.7496317949173549</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="Q10">
-        <v>507.3245293643184</v>
+        <v>0.4011471744539999</v>
       </c>
       <c r="R10">
-        <v>4565.920764278865</v>
+        <v>3.610324570086</v>
       </c>
       <c r="S10">
-        <v>0.1156177231811829</v>
+        <v>0.0005313342105642141</v>
       </c>
       <c r="T10">
-        <v>0.1156177231811829</v>
+        <v>0.000531334210564214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H11">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.756517</v>
       </c>
       <c r="O11">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="P11">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="Q11">
-        <v>1.726736687366333</v>
+        <v>1.818934422845667</v>
       </c>
       <c r="R11">
-        <v>15.540630186297</v>
+        <v>16.370409805611</v>
       </c>
       <c r="S11">
-        <v>0.0003935180594891908</v>
+        <v>0.002409245651415157</v>
       </c>
       <c r="T11">
-        <v>0.0003935180594891908</v>
+        <v>0.002409245651415157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H12">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.011929</v>
+        <v>4.376294333333333</v>
       </c>
       <c r="N12">
-        <v>9.035787000000001</v>
+        <v>13.128883</v>
       </c>
       <c r="O12">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="P12">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="Q12">
-        <v>20.624024195263</v>
+        <v>31.56647798028767</v>
       </c>
       <c r="R12">
-        <v>185.616217757367</v>
+        <v>284.098301822589</v>
       </c>
       <c r="S12">
-        <v>0.004700152628688658</v>
+        <v>0.04181096297332165</v>
       </c>
       <c r="T12">
-        <v>0.004700152628688658</v>
+        <v>0.04181096297332165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H13">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.48095</v>
+        <v>12.83925333333333</v>
       </c>
       <c r="N13">
-        <v>64.44284999999999</v>
+        <v>38.51776</v>
       </c>
       <c r="O13">
-        <v>0.2173423211987967</v>
+        <v>0.732694664915554</v>
       </c>
       <c r="P13">
-        <v>0.2173423211987967</v>
+        <v>0.7326946649155539</v>
       </c>
       <c r="Q13">
-        <v>147.08966663465</v>
+        <v>92.61031748778666</v>
       </c>
       <c r="R13">
-        <v>1323.80699971185</v>
+        <v>833.4928573900801</v>
       </c>
       <c r="S13">
-        <v>0.03352128938272768</v>
+        <v>0.1226657772161798</v>
       </c>
       <c r="T13">
-        <v>0.03352128938272768</v>
+        <v>0.1226657772161797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H14">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>74.08958833333334</v>
+        <v>0.055614</v>
       </c>
       <c r="N14">
-        <v>222.268765</v>
+        <v>0.166842</v>
       </c>
       <c r="O14">
-        <v>0.749631794917355</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="P14">
-        <v>0.7496317949173549</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="Q14">
-        <v>1072.735370071558</v>
+        <v>0.558015063086</v>
       </c>
       <c r="R14">
-        <v>9654.618330644025</v>
+        <v>5.022135567774001</v>
       </c>
       <c r="S14">
-        <v>0.2444731407310511</v>
+        <v>0.0007391115079678545</v>
       </c>
       <c r="T14">
-        <v>0.2444731407310511</v>
+        <v>0.0007391115079678545</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H15">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.756517</v>
       </c>
       <c r="O15">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="P15">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="Q15">
-        <v>3.651176736238334</v>
+        <v>2.530225491666556</v>
       </c>
       <c r="R15">
-        <v>32.860590626145</v>
+        <v>22.772029424999</v>
       </c>
       <c r="S15">
-        <v>0.0008320921160759256</v>
+        <v>0.003351376875566808</v>
       </c>
       <c r="T15">
-        <v>0.0008320921160759254</v>
+        <v>0.003351376875566808</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H16">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.011929</v>
+        <v>4.376294333333333</v>
       </c>
       <c r="N16">
-        <v>9.035787000000001</v>
+        <v>13.128883</v>
       </c>
       <c r="O16">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="P16">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="Q16">
-        <v>43.60940373845501</v>
+        <v>43.91049301431122</v>
       </c>
       <c r="R16">
-        <v>392.4846336460951</v>
+        <v>395.194437128801</v>
       </c>
       <c r="S16">
-        <v>0.009938450986879793</v>
+        <v>0.05816106563133702</v>
       </c>
       <c r="T16">
-        <v>0.009938450986879791</v>
+        <v>0.05816106563133701</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H17">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.48095</v>
+        <v>12.83925333333333</v>
       </c>
       <c r="N17">
-        <v>64.44284999999999</v>
+        <v>38.51776</v>
       </c>
       <c r="O17">
-        <v>0.2173423211987967</v>
+        <v>0.732694664915554</v>
       </c>
       <c r="P17">
-        <v>0.2173423211987967</v>
+        <v>0.7326946649155539</v>
       </c>
       <c r="Q17">
-        <v>311.02041955025</v>
+        <v>128.8254173189689</v>
       </c>
       <c r="R17">
-        <v>2799.18377595225</v>
+        <v>1159.42875587072</v>
       </c>
       <c r="S17">
-        <v>0.07088061130478687</v>
+        <v>0.1706340110832039</v>
       </c>
       <c r="T17">
-        <v>0.07088061130478687</v>
+        <v>0.1706340110832039</v>
       </c>
     </row>
   </sheetData>
